--- a/branches/may/StructureDefinition-DosageOverride.xlsx
+++ b/branches/may/StructureDefinition-DosageOverride.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:01:04+00:00</t>
+    <t>2024-05-07T09:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dispense override.</t>
+    <t>Dosage override.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/may/StructureDefinition-DosageOverride.xlsx
+++ b/branches/may/StructureDefinition-DosageOverride.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:20:42+00:00</t>
+    <t>2024-05-07T13:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
